--- a/downloaded_files/SBES152_Lecture-35349.xlsx
+++ b/downloaded_files/SBES152_Lecture-35349.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Malak Mohamed Hussein Mohamed </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند ياسر مصطفى محمد البوهي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohaned Yasser Moustafa Elbohy</x:t>
   </x:si>
   <x:si>
     <x:t>1230277</x:t>
@@ -362,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1361,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6672380787</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45906.6650637384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1474,38 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.6650637384</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES152_Lecture-35349.xlsx
+++ b/downloaded_files/SBES152_Lecture-35349.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1230002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محمد عبدالمجيد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ebrahim Mohamed Abdel Magied Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>2210002</x:t>
   </x:si>
   <x:si>
@@ -96,6 +105,15 @@
     <x:t>Gamila Hatem ElSayed Ahmed Mohamed Aly Farag</x:t>
   </x:si>
   <x:si>
+    <x:t>1210212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنا محمد مصطفي علي محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Mohamed Mustafa Ali Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230026</x:t>
   </x:si>
   <x:si>
@@ -175,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Nasser Mohamed Mohamed Ali Gaafar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ماهي تامر حسن ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahy tamer hassan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230100</x:t>
@@ -353,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -744,7 +771,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4160199074</x:v>
+        <x:v>45927.414599537</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -776,7 +803,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6685705208</x:v>
+        <x:v>45907.4160199074</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -808,7 +835,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6651039005</x:v>
+        <x:v>45907.6685705208</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +867,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6667517361</x:v>
+        <x:v>45907.6651039005</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6667452546</x:v>
+        <x:v>45907.6667517361</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6757808681</x:v>
+        <x:v>45907.6667452546</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45907.6757808681</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45927.4160923611</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4149654745</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45907.4149654745</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4491407407</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.4491407407</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1492,102 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.6671912037</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.4152314005</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6650637384</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES152_Lecture-35349.xlsx
+++ b/downloaded_files/SBES152_Lecture-35349.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed attay kamal kamalelden</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسراء محمد ابراهيم حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4240007</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -899,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6667517361</x:v>
+        <x:v>45907.6667452546</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6667452546</x:v>
+        <x:v>45907.6757808681</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6757808681</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45927.4160923611</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4160923611</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45907.4149654745</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4149654745</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4153118403</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45907.4491407407</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4491407407</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45906.6650637384</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6650637384</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES152_Lecture-35349.xlsx
+++ b/downloaded_files/SBES152_Lecture-35349.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Nasser Mohamed Mohamed Ali Gaafar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم الدين عرفان عبداللطيف هنيدي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kareemeldin erfan abdellatif heneidy</x:t>
   </x:si>
   <x:si>
     <x:t>1210355</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -681,7 +690,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.370625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.390625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4153118403</x:v>
+        <x:v>45932.5136590625</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4491407407</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45907.4491407407</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6650637384</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
